--- a/public/files/import_data_lite.xlsx
+++ b/public/files/import_data_lite.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zeroz\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\elearning-easia\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B6FE14-6EFC-4ADA-A740-93348EC95154}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D35DBE-B5B9-4D16-973C-C35E2C62AD3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Staff List" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="82">
   <si>
     <t>Nữ</t>
   </si>
@@ -266,7 +266,16 @@
 ( Ngày ký HĐ chính thức)</t>
   </si>
   <si>
-    <t>EA-SLS</t>
+    <t>Mã Team</t>
+  </si>
+  <si>
+    <t>Team code</t>
+  </si>
+  <si>
+    <t>TEAM1</t>
+  </si>
+  <si>
+    <t>TEAM3</t>
   </si>
 </sst>
 </file>
@@ -781,10 +790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V10"/>
+  <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -796,24 +805,24 @@
     <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" customWidth="1"/>
-    <col min="9" max="9" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="56.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="20.5703125" customWidth="1"/>
+    <col min="10" max="10" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="56.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="32.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>34</v>
       </c>
@@ -838,42 +847,45 @@
       <c r="H1" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="K1" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="L1" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="M1" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="17"/>
       <c r="N1" s="17"/>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="17"/>
+      <c r="P1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="25" t="s">
+      <c r="Q1" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="Q1" s="25"/>
       <c r="R1" s="25"/>
-      <c r="S1" s="15" t="s">
+      <c r="S1" s="25"/>
+      <c r="T1" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="T1" s="26" t="s">
+      <c r="U1" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="U1" s="16" t="s">
+      <c r="V1" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="V1" s="22" t="s">
+      <c r="W1" s="22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="21"/>
       <c r="C2" s="16"/>
@@ -882,28 +894,29 @@
       <c r="F2" s="15"/>
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="19"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="16"/>
       <c r="K2" s="19"/>
-      <c r="L2" s="17"/>
+      <c r="L2" s="19"/>
       <c r="M2" s="17"/>
       <c r="N2" s="17"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="4" t="s">
+      <c r="O2" s="17"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="15"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="23"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="23"/>
     </row>
-    <row r="3" spans="1:22" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>20</v>
       </c>
@@ -928,48 +941,51 @@
       <c r="H3" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="J3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="K3" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="L3" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="M3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="N3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="O3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="S3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="T3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="U3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="U3" s="5" t="s">
+      <c r="V3" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -1025,7 +1041,7 @@
         <v>17</v>
       </c>
       <c r="S4" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="T4" s="3">
         <v>19</v>
@@ -1036,8 +1052,11 @@
       <c r="V4" s="3">
         <v>21</v>
       </c>
+      <c r="W4" s="3">
+        <v>22</v>
+      </c>
     </row>
-    <row r="5" spans="1:22" ht="48" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="48" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>1</v>
       </c>
@@ -1062,50 +1081,53 @@
       <c r="H5" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J5" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="K5" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="L5" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="L5" s="7">
+      <c r="M5" s="7">
         <v>10</v>
       </c>
-      <c r="M5" s="7">
+      <c r="N5" s="7">
         <v>5</v>
       </c>
-      <c r="N5" s="7">
+      <c r="O5" s="7">
         <v>1983</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="P5" s="1">
+      <c r="Q5" s="1">
         <v>12</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="R5" s="1">
         <v>5</v>
       </c>
-      <c r="R5" s="1">
+      <c r="S5" s="1">
         <v>2008</v>
       </c>
-      <c r="S5" s="7" t="s">
+      <c r="T5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="T5" s="9" t="s">
+      <c r="U5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="U5" s="7" t="s">
+      <c r="V5" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="V5" s="11" t="s">
+      <c r="W5" s="11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="48" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="48" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -1130,50 +1152,53 @@
       <c r="H6" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="K6" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="L6" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="L6" s="7">
+      <c r="M6" s="7">
         <v>26</v>
       </c>
-      <c r="M6" s="7">
+      <c r="N6" s="7">
         <v>7</v>
       </c>
-      <c r="N6" s="7">
+      <c r="O6" s="7">
         <v>1986</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="P6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="P6" s="1">
+      <c r="Q6" s="1">
         <v>1</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="R6" s="1">
         <v>8</v>
       </c>
-      <c r="R6" s="1">
+      <c r="S6" s="1">
         <v>2010</v>
       </c>
-      <c r="S6" s="7" t="s">
+      <c r="T6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="T6" s="9" t="s">
+      <c r="U6" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="U6" s="7" t="s">
+      <c r="V6" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="V6" s="10" t="s">
+      <c r="W6" s="10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="48" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" ht="48" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -1196,88 +1221,92 @@
         <v>64</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="I7" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="K7" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="L7" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="L7" s="7">
+      <c r="M7" s="7">
         <v>27</v>
       </c>
-      <c r="M7" s="7">
+      <c r="N7" s="7">
         <v>7</v>
       </c>
-      <c r="N7" s="7">
+      <c r="O7" s="7">
         <v>1986</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="P7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="P7" s="1">
+      <c r="Q7" s="1">
         <v>1</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="R7" s="1">
         <v>8</v>
       </c>
-      <c r="R7" s="1">
+      <c r="S7" s="1">
         <v>2010</v>
       </c>
-      <c r="S7" s="7" t="s">
+      <c r="T7" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="T7" s="9" t="s">
+      <c r="U7" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="U7" s="7" t="s">
+      <c r="V7" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="V7" s="10" t="s">
+      <c r="W7" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:23" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
     </row>
-    <row r="10" spans="1:22" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:23" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="V1:V3"/>
+  <mergeCells count="19">
+    <mergeCell ref="W1:W3"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="T1:T2"/>
     <mergeCell ref="U1:U2"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="L1:N2"/>
-    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="M1:O2"/>
     <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="V6" r:id="rId1" xr:uid="{17D5EC32-5C46-AD47-9FB5-52F61289063A}"/>
-    <hyperlink ref="V5" r:id="rId2" xr:uid="{7FC0A234-CA60-5049-8E36-12DA086286D9}"/>
-    <hyperlink ref="V7" r:id="rId3" xr:uid="{11841F35-A7C4-4374-B571-4371FB9F9042}"/>
+    <hyperlink ref="W6" r:id="rId1" xr:uid="{17D5EC32-5C46-AD47-9FB5-52F61289063A}"/>
+    <hyperlink ref="W5" r:id="rId2" xr:uid="{7FC0A234-CA60-5049-8E36-12DA086286D9}"/>
+    <hyperlink ref="W7" r:id="rId3" xr:uid="{11841F35-A7C4-4374-B571-4371FB9F9042}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>

--- a/public/files/import_data_lite.xlsx
+++ b/public/files/import_data_lite.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\elearning-easia\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D35DBE-B5B9-4D16-973C-C35E2C62AD3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3160C09-841A-470C-B2B5-6C5F1072669A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -192,9 +192,6 @@
     <t>myngoc@easia-travel.com</t>
   </si>
   <si>
-    <t>Mã phòng / Bộ phận</t>
-  </si>
-  <si>
     <t>Department code</t>
   </si>
   <si>
@@ -244,9 +241,6 @@
   </si>
   <si>
     <t>Organization code</t>
-  </si>
-  <si>
-    <t>Mã tổ chức</t>
   </si>
   <si>
     <t>EA</t>
@@ -276,6 +270,36 @@
   </si>
   <si>
     <t>TEAM3</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mã phòng / Bộ phận 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(SLS / CON / ACC / ...)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mã tổ chức
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(EA / EV / AV /  BG / ...)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -472,11 +496,26 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -492,21 +531,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -793,7 +817,7 @@
   <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -804,8 +828,9 @@
     <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="20.5703125" customWidth="1"/>
+    <col min="7" max="7" width="24" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" customWidth="1"/>
     <col min="10" max="10" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
@@ -823,85 +848,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="J1" s="16" t="s">
+      <c r="G1" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="15" t="s">
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="15" t="s">
+      <c r="Q1" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="V1" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="W1" s="22" t="s">
+      <c r="U1" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="V1" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="W1" s="15" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="15"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="20"/>
       <c r="Q2" s="4" t="s">
         <v>23</v>
       </c>
@@ -911,12 +936,12 @@
       <c r="S2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="T2" s="15"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="23"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="16"/>
     </row>
-    <row r="3" spans="1:23" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>20</v>
       </c>
@@ -935,14 +960,14 @@
       <c r="F3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>72</v>
+      <c r="G3" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>81</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J3" s="13" t="s">
         <v>14</v>
@@ -981,9 +1006,9 @@
         <v>7</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="W3" s="24"/>
+        <v>74</v>
+      </c>
+      <c r="W3" s="17"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -1041,7 +1066,7 @@
         <v>17</v>
       </c>
       <c r="S4" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T4" s="3">
         <v>19</v>
@@ -1076,22 +1101,22 @@
         <v>41</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="K5" s="8" t="s">
+      <c r="L5" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>58</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
@@ -1147,22 +1172,22 @@
         <v>41</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>42</v>
       </c>
       <c r="K6" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="L6" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>58</v>
       </c>
       <c r="M6" s="7">
         <v>26</v>
@@ -1203,37 +1228,37 @@
         <v>3</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="D7" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="E7" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="H7" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>66</v>
-      </c>
       <c r="K7" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="L7" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>58</v>
       </c>
       <c r="M7" s="7">
         <v>27</v>
@@ -1257,16 +1282,16 @@
         <v>2010</v>
       </c>
       <c r="T7" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="U7" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="U7" s="9" t="s">
+      <c r="V7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="W7" s="10" t="s">
         <v>68</v>
-      </c>
-      <c r="V7" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="W7" s="10" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="26.25" x14ac:dyDescent="0.4">
@@ -1283,11 +1308,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="W1:W3"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="C1:C2"/>
@@ -1302,6 +1322,11 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
+    <mergeCell ref="W1:W3"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="W6" r:id="rId1" xr:uid="{17D5EC32-5C46-AD47-9FB5-52F61289063A}"/>

--- a/public/files/import_data_lite.xlsx
+++ b/public/files/import_data_lite.xlsx
@@ -1,31 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\elearning-easia\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3160C09-841A-470C-B2B5-6C5F1072669A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6906B0-4374-4658-A21F-771D4C2DF952}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Staff List" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="83">
   <si>
     <t>Nữ</t>
   </si>
@@ -300,6 +308,9 @@
       </rPr>
       <t>(EA / EV / AV /  BG / ...)</t>
     </r>
+  </si>
+  <si>
+    <t>Line Manager</t>
   </si>
 </sst>
 </file>
@@ -454,7 +465,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -496,6 +507,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -814,10 +834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:X10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -844,89 +864,92 @@
     <col min="20" max="20" width="56.42578125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="18" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="32.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="20" t="s">
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="Q1" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="20" t="s">
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="21" t="s">
+      <c r="U1" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="V1" s="18" t="s">
+      <c r="V1" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="W1" s="15" t="s">
+      <c r="W1" s="18" t="s">
         <v>24</v>
       </c>
+      <c r="X1" s="15" t="s">
+        <v>82</v>
+      </c>
     </row>
-    <row r="2" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="20"/>
+    <row r="2" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="23"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="23"/>
       <c r="Q2" s="4" t="s">
         <v>23</v>
       </c>
@@ -936,12 +959,13 @@
       <c r="S2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="T2" s="20"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="16"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="16"/>
     </row>
-    <row r="3" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>20</v>
       </c>
@@ -1008,9 +1032,10 @@
       <c r="V3" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="W3" s="17"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="17"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -1080,8 +1105,11 @@
       <c r="W4" s="3">
         <v>22</v>
       </c>
+      <c r="X4" s="3">
+        <v>23</v>
+      </c>
     </row>
-    <row r="5" spans="1:23" ht="48" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="48" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>1</v>
       </c>
@@ -1151,8 +1179,9 @@
       <c r="W5" s="11" t="s">
         <v>46</v>
       </c>
+      <c r="X5" s="10"/>
     </row>
-    <row r="6" spans="1:23" ht="48" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" ht="48" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -1222,8 +1251,11 @@
       <c r="W6" s="10" t="s">
         <v>53</v>
       </c>
+      <c r="X6" s="11" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="7" spans="1:23" ht="48" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="48" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -1293,21 +1325,24 @@
       <c r="W7" s="10" t="s">
         <v>68</v>
       </c>
+      <c r="X7" s="11" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="9" spans="1:23" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:24" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
     </row>
-    <row r="10" spans="1:23" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:24" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="20">
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="C1:C2"/>
@@ -1322,6 +1357,7 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
+    <mergeCell ref="X1:X3"/>
     <mergeCell ref="W1:W3"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="Q1:S1"/>
@@ -1332,8 +1368,10 @@
     <hyperlink ref="W6" r:id="rId1" xr:uid="{17D5EC32-5C46-AD47-9FB5-52F61289063A}"/>
     <hyperlink ref="W5" r:id="rId2" xr:uid="{7FC0A234-CA60-5049-8E36-12DA086286D9}"/>
     <hyperlink ref="W7" r:id="rId3" xr:uid="{11841F35-A7C4-4374-B571-4371FB9F9042}"/>
+    <hyperlink ref="X6" r:id="rId4" xr:uid="{F17FC52F-AAF8-462F-9517-FBE7B117D9FE}"/>
+    <hyperlink ref="X7" r:id="rId5" xr:uid="{53B46F4C-5EC4-49F8-93A2-5A0BC0119501}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/public/files/import_data_lite.xlsx
+++ b/public/files/import_data_lite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\elearning-easia\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6906B0-4374-4658-A21F-771D4C2DF952}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E45ADF-855F-4447-BAEC-55526AE53A29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="87">
   <si>
     <t>Nữ</t>
   </si>
@@ -311,6 +311,30 @@
   </si>
   <si>
     <t>Line Manager</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>Senior Executive</t>
+  </si>
+  <si>
+    <t>Leader</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vị trí
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(Manager, Leader, Sernior Excutive, Excutive, Junior Excutive)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -393,7 +417,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -453,6 +477,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -465,7 +515,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -507,6 +557,27 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -525,32 +596,32 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -834,10 +905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X10"/>
+  <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="X7" sqref="X7"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="Y4" sqref="Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -852,120 +923,125 @@
     <col min="8" max="8" width="23.85546875" customWidth="1"/>
     <col min="9" max="9" width="20.5703125" customWidth="1"/>
     <col min="10" max="10" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="56.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5703125" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21" customWidth="1"/>
+    <col min="21" max="21" width="56.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="32.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="M1" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="N1" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="23" t="s">
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="22" t="s">
+      <c r="R1" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="23" t="s">
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="24" t="s">
+      <c r="V1" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="V1" s="21" t="s">
+      <c r="W1" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="W1" s="18" t="s">
+      <c r="X1" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="X1" s="15" t="s">
+      <c r="Y1" s="22" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="4" t="s">
+    <row r="2" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="T2" s="23"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="16"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="23"/>
     </row>
-    <row r="3" spans="1:24" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>20</v>
       </c>
@@ -997,45 +1073,48 @@
         <v>14</v>
       </c>
       <c r="K3" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="L3" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="M3" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="N3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="O3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="P3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="S3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="T3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="U3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="6" t="s">
+      <c r="V3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="V3" s="5" t="s">
+      <c r="W3" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="W3" s="20"/>
-      <c r="X3" s="17"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="24"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -1066,7 +1145,7 @@
       <c r="J4" s="3">
         <v>9</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="32">
         <v>10</v>
       </c>
       <c r="L4" s="3">
@@ -1108,8 +1187,11 @@
       <c r="X4" s="3">
         <v>23</v>
       </c>
+      <c r="Y4" s="3">
+        <v>24</v>
+      </c>
     </row>
-    <row r="5" spans="1:24" ht="48" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" ht="48" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>1</v>
       </c>
@@ -1141,47 +1223,50 @@
         <v>58</v>
       </c>
       <c r="K5" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="L5" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="M5" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="M5" s="7">
+      <c r="N5" s="7">
         <v>10</v>
       </c>
-      <c r="N5" s="7">
+      <c r="O5" s="7">
         <v>5</v>
       </c>
-      <c r="O5" s="7">
+      <c r="P5" s="7">
         <v>1983</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="R5" s="1">
         <v>12</v>
       </c>
-      <c r="R5" s="1">
+      <c r="S5" s="1">
         <v>5</v>
       </c>
-      <c r="S5" s="1">
+      <c r="T5" s="1">
         <v>2008</v>
       </c>
-      <c r="T5" s="7" t="s">
+      <c r="U5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="U5" s="9" t="s">
+      <c r="V5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="V5" s="7" t="s">
+      <c r="W5" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="W5" s="11" t="s">
+      <c r="X5" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
     </row>
-    <row r="6" spans="1:24" ht="48" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" ht="48" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -1212,50 +1297,53 @@
       <c r="J6" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="M6" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="M6" s="7">
+      <c r="N6" s="7">
         <v>26</v>
       </c>
-      <c r="N6" s="7">
+      <c r="O6" s="7">
         <v>7</v>
       </c>
-      <c r="O6" s="7">
+      <c r="P6" s="7">
         <v>1986</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="Q6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="R6" s="1">
         <v>1</v>
       </c>
-      <c r="R6" s="1">
+      <c r="S6" s="1">
         <v>8</v>
       </c>
-      <c r="S6" s="1">
+      <c r="T6" s="1">
         <v>2010</v>
       </c>
-      <c r="T6" s="7" t="s">
+      <c r="U6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="U6" s="9" t="s">
+      <c r="V6" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="V6" s="7" t="s">
+      <c r="W6" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="W6" s="10" t="s">
+      <c r="X6" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="X6" s="11" t="s">
+      <c r="Y6" s="11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="48" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" ht="48" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -1283,93 +1371,101 @@
       <c r="I7" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="35" t="s">
         <v>65</v>
       </c>
       <c r="K7" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="M7" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="M7" s="7">
+      <c r="N7" s="7">
         <v>27</v>
       </c>
-      <c r="N7" s="7">
+      <c r="O7" s="7">
         <v>7</v>
       </c>
-      <c r="O7" s="7">
+      <c r="P7" s="7">
         <v>1986</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="Q7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="R7" s="1">
         <v>1</v>
       </c>
-      <c r="R7" s="1">
+      <c r="S7" s="1">
         <v>8</v>
       </c>
-      <c r="S7" s="1">
+      <c r="T7" s="1">
         <v>2010</v>
       </c>
-      <c r="T7" s="7" t="s">
+      <c r="U7" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="U7" s="9" t="s">
+      <c r="V7" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="V7" s="7" t="s">
+      <c r="W7" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="W7" s="10" t="s">
+      <c r="X7" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="X7" s="11" t="s">
+      <c r="Y7" s="11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K8" s="34"/>
+    </row>
+    <row r="9" spans="1:25" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
+      <c r="K9" s="34"/>
     </row>
-    <row r="10" spans="1:24" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:25" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
+  <mergeCells count="21">
+    <mergeCell ref="Y1:Y3"/>
+    <mergeCell ref="X1:X3"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="M1:O2"/>
-    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="N1:P2"/>
     <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
-    <mergeCell ref="X1:X3"/>
-    <mergeCell ref="W1:W3"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="K1:K2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="W6" r:id="rId1" xr:uid="{17D5EC32-5C46-AD47-9FB5-52F61289063A}"/>
-    <hyperlink ref="W5" r:id="rId2" xr:uid="{7FC0A234-CA60-5049-8E36-12DA086286D9}"/>
-    <hyperlink ref="W7" r:id="rId3" xr:uid="{11841F35-A7C4-4374-B571-4371FB9F9042}"/>
-    <hyperlink ref="X6" r:id="rId4" xr:uid="{F17FC52F-AAF8-462F-9517-FBE7B117D9FE}"/>
-    <hyperlink ref="X7" r:id="rId5" xr:uid="{53B46F4C-5EC4-49F8-93A2-5A0BC0119501}"/>
+    <hyperlink ref="X6" r:id="rId1" xr:uid="{17D5EC32-5C46-AD47-9FB5-52F61289063A}"/>
+    <hyperlink ref="X5" r:id="rId2" xr:uid="{7FC0A234-CA60-5049-8E36-12DA086286D9}"/>
+    <hyperlink ref="X7" r:id="rId3" xr:uid="{11841F35-A7C4-4374-B571-4371FB9F9042}"/>
+    <hyperlink ref="Y6" r:id="rId4" xr:uid="{F17FC52F-AAF8-462F-9517-FBE7B117D9FE}"/>
+    <hyperlink ref="Y7" r:id="rId5" xr:uid="{53B46F4C-5EC4-49F8-93A2-5A0BC0119501}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
